--- a/配置表test/文本表test.xlsx
+++ b/配置表test/文本表test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eyewind/someproj/x2j/配置表test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6592B804-2A4A-DD46-B0F0-D6AFFECF47E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270C6F5C-7197-614D-BDA4-73B9DE917257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="$Localization|多语言" sheetId="4" r:id="rId1"/>
+    <sheet name="异常字符集" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'$Localization|多语言'!$A$1:$C$1185</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="196">
   <si>
     <t>文本key</t>
   </si>
@@ -594,13 +595,43 @@
   </si>
   <si>
     <t>Chính sách dịch vụ</t>
+  </si>
+  <si>
+    <t>异常字符集</t>
+  </si>
+  <si>
+    <t>Unicode编码</t>
+  </si>
+  <si>
+    <t>修改后字符</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>＃</t>
+  </si>
+  <si>
+    <t>｛</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>｝</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -672,8 +703,16 @@
       <family val="2"/>
       <charset val="222"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,6 +728,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39951780755027927"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,6 +857,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,6 +878,13 @@
   <dxfs count="3">
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -825,13 +892,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1117,7 +1177,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:R506"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2213,18 +2273,197 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="A6:A14">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A15:A1048576 A1:A5">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:R5 B15:R1048576">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A14">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725AB723-9892-9F4F-8473-19642094DA31}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="28">
+        <f>_xlfn.UNICODE(A2)</f>
+        <v>160</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="28">
+        <f>_xlfn.UNICODE(C2)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="28">
+        <f>_xlfn.UNICODE(A3)</f>
+        <v>65283</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28">
+        <f>_xlfn.UNICODE(C3)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="28">
+        <f>_xlfn.UNICODE(A4)</f>
+        <v>65371</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="28">
+        <f>_xlfn.UNICODE(C4)</f>
+        <v>123</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="28">
+        <f>_xlfn.UNICODE(A5)</f>
+        <v>65373</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="28">
+        <f>_xlfn.UNICODE(C5)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>